--- a/mcmaster_excel/316_Stainless_Steel_Flanged_Button_Head_Screws.xlsx
+++ b/mcmaster_excel/316_Stainless_Steel_Flanged_Button_Head_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,221 +434,133 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>FlangeDia.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Style</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Finish</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>SpecificationsMet</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr"/>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1/4"</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0.234"</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.084"</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Hex</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1/16"</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>ASME B18.3</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>90909A611</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>$10.47</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>4-40</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>316 Stainless Steel</t>
-        </is>
-      </c>
+          <t>Drive</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>Lg.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.234"</t>
+          <t>FlangeDia.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.084"</t>
+          <t>Head Ht.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Hex</t>
+          <t>Style</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1/16"</t>
+          <t>Size</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>Finish</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>70,000</t>
+          <t>TensileStrength, psi</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ASME B18.3</t>
+          <t>SpecificationsMet</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>90909A614</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>10.87</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>4-40</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>316 Stainless Steel</t>
-        </is>
-      </c>
+          <t>Pkg.</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -698,12 +610,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>90909A617</t>
+          <t>90909A611</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>11.29</t>
+          <t>$10.47</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -720,7 +632,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -730,12 +642,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.292"</t>
+          <t>0.234"</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.073"</t>
+          <t>0.084"</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -745,12 +657,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5/64"</t>
+          <t>1/16"</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Passivated</t>
+          <t>__</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -760,7 +672,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ASME B18.3</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -770,17 +682,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>90909A511</t>
+          <t>90909A614</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>10.42</t>
+          <t>10.87</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -792,7 +704,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -802,12 +714,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.292"</t>
+          <t>0.234"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.073"</t>
+          <t>0.084"</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -817,12 +729,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5/64"</t>
+          <t>1/16"</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Passivated</t>
+          <t>__</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -832,7 +744,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ASME B18.3</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -842,17 +754,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>90909A512</t>
+          <t>90909A617</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>11.07</t>
+          <t>11.29</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -864,7 +776,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -914,12 +826,12 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>90909A513</t>
+          <t>90909A511</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>12.80</t>
+          <t>10.42</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -936,7 +848,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -951,7 +863,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.101"</t>
+          <t>0.073"</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -966,7 +878,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>Passivated</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -976,7 +888,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>ASME B18.3</t>
+          <t>__</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -986,12 +898,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>90909A620</t>
+          <t>90909A512</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>12.52</t>
+          <t>11.07</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1008,7 +920,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1018,12 +930,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.359"</t>
+          <t>0.292"</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.087"</t>
+          <t>0.073"</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1033,7 +945,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3/32"</t>
+          <t>5/64"</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1053,22 +965,22 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>90909A514</t>
+          <t>90909A513</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>15.93</t>
+          <t>12.80</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1080,7 +992,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1090,12 +1002,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.359"</t>
+          <t>0.292"</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.087"</t>
+          <t>0.101"</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1105,12 +1017,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3/32"</t>
+          <t>5/64"</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Passivated</t>
+          <t>__</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1120,27 +1032,27 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ASME B18.3</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>90909A515</t>
+          <t>90909A620</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>15.96</t>
+          <t>12.52</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1152,7 +1064,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1202,12 +1114,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>90909A516</t>
+          <t>90909A514</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>16.67</t>
+          <t>15.93</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1224,7 +1136,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1274,12 +1186,12 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>90909A632</t>
+          <t>90909A515</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>12.77</t>
+          <t>15.96</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1296,7 +1208,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1341,17 +1253,17 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>90909A635</t>
+          <t>90909A516</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>7.11</t>
+          <t>16.67</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1368,7 +1280,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1378,12 +1290,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.406"</t>
+          <t>0.359"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.101"</t>
+          <t>0.087"</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1393,7 +1305,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>3/32"</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1418,17 +1330,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>90909A517</t>
+          <t>90909A632</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>16.25</t>
+          <t>12.77</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1440,7 +1352,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1450,12 +1362,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.406"</t>
+          <t>0.359"</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.101"</t>
+          <t>0.087"</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1465,7 +1377,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>3/32"</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1485,22 +1397,22 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>90909A518</t>
+          <t>90909A635</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>16.26</t>
+          <t>7.11</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1512,7 +1424,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1557,17 +1469,17 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>90909A519</t>
+          <t>90909A517</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>8.30</t>
+          <t>16.25</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1584,7 +1496,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1629,17 +1541,17 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>90909A520</t>
+          <t>90909A518</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>12.11</t>
+          <t>16.26</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1656,7 +1568,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1706,12 +1618,12 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>90909A211</t>
+          <t>90909A519</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>15.49</t>
+          <t>8.30</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1728,7 +1640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1743,7 +1655,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.137"</t>
+          <t>0.101"</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1758,7 +1670,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>Passivated</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1768,7 +1680,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>ASME B18.3</t>
+          <t>__</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1778,17 +1690,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>90909A623</t>
+          <t>90909A520</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>10.06</t>
+          <t>12.11</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1800,7 +1712,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1845,22 +1757,22 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>90909A521</t>
+          <t>90909A211</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>17.24</t>
+          <t>15.49</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1872,7 +1784,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1887,7 +1799,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.101"</t>
+          <t>0.137"</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1902,7 +1814,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Passivated</t>
+          <t>__</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1912,22 +1824,22 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ASME B18.3</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>90909A522</t>
+          <t>90909A623</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>16.70</t>
+          <t>10.06</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -1944,7 +1856,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1994,12 +1906,12 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>90909A523</t>
+          <t>90909A521</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>17.56</t>
+          <t>17.24</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2016,7 +1928,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2066,12 +1978,12 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>90909A524</t>
+          <t>90909A522</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>18.72</t>
+          <t>16.70</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2088,7 +2000,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2133,17 +2045,17 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>90909A525</t>
+          <t>90909A523</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>9.31</t>
+          <t>17.56</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2160,7 +2072,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2205,17 +2117,17 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>90909A638</t>
+          <t>90909A524</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>10.30</t>
+          <t>18.72</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2232,7 +2144,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2242,12 +2154,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.560"</t>
+          <t>0.406"</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.178"</t>
+          <t>0.101"</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2257,12 +2169,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>5/32"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>Passivated</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2272,7 +2184,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>ASME B18.3</t>
+          <t>__</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2282,17 +2194,17 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>90909A626</t>
+          <t>90909A525</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>15.18</t>
+          <t>9.31</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2304,7 +2216,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2314,12 +2226,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.560"</t>
+          <t>0.406"</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.178"</t>
+          <t>0.101"</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2329,12 +2241,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>5/32"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>Passivated</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2344,7 +2256,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>ASME B18.3</t>
+          <t>__</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2354,17 +2266,17 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>90909A629</t>
+          <t>90909A638</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>15.80</t>
+          <t>10.30</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2376,7 +2288,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2391,7 +2303,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.132"</t>
+          <t>0.178"</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2406,7 +2318,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Passivated</t>
+          <t>__</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2416,7 +2328,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ASME B18.3</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2426,12 +2338,12 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>90909A526</t>
+          <t>90909A626</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>9.48</t>
+          <t>15.18</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2448,7 +2360,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2463,7 +2375,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.132"</t>
+          <t>0.178"</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2478,7 +2390,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Passivated</t>
+          <t>__</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2488,7 +2400,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ASME B18.3</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2498,12 +2410,12 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>90909A527</t>
+          <t>90909A629</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>10.35</t>
+          <t>15.80</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2520,7 +2432,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2570,12 +2482,12 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>90909A528</t>
+          <t>90909A526</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>9.90</t>
+          <t>9.48</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -2592,7 +2504,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2642,12 +2554,12 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>90909A529</t>
+          <t>90909A527</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>10.94</t>
+          <t>10.35</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2664,7 +2576,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2714,12 +2626,12 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>90909A530</t>
+          <t>90909A528</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>13.08</t>
+          <t>9.90</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -2736,7 +2648,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2746,7 +2658,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.563"</t>
+          <t>0.560"</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2781,17 +2693,17 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>90909A641</t>
+          <t>90909A529</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>8.20</t>
+          <t>10.94</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -2808,7 +2720,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2818,7 +2730,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.563"</t>
+          <t>0.560"</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2853,17 +2765,17 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>90909A944</t>
+          <t>90909A530</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>13.08</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -2880,7 +2792,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2890,12 +2802,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.688"</t>
+          <t>0.563"</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.166"</t>
+          <t>0.132"</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2905,7 +2817,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>5/32"</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2925,22 +2837,22 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>90909A531</t>
+          <t>90909A641</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>15.47</t>
+          <t>8.20</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>5/16"-18</t>
+          <t>1/4"-20</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -2952,7 +2864,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2962,12 +2874,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.688"</t>
+          <t>0.563"</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.166"</t>
+          <t>0.132"</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2977,7 +2889,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>5/32"</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2997,22 +2909,22 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>90909A532</t>
+          <t>90909A944</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>16.30</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>5/16"-18</t>
+          <t>1/4"-20</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -3024,7 +2936,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3074,12 +2986,12 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>90909A533</t>
+          <t>90909A531</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>20.27</t>
+          <t>15.47</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -3096,7 +3008,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3141,17 +3053,17 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>90909A647</t>
+          <t>90909A532</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>10.08</t>
+          <t>16.30</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -3168,7 +3080,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3213,17 +3125,17 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>90909A650</t>
+          <t>90909A533</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>20.27</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -3240,7 +3152,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3290,12 +3202,12 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>90909A212</t>
+          <t>90909A647</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>14.05</t>
+          <t>10.08</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -3312,7 +3224,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3322,12 +3234,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.813"</t>
+          <t>0.688"</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.199"</t>
+          <t>0.166"</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3337,7 +3249,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>7/32"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -3357,22 +3269,22 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>90909A534</t>
+          <t>90909A650</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>14.87</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>3/8"-16</t>
+          <t>5/16"-18</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3384,7 +3296,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3394,12 +3306,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.813"</t>
+          <t>0.688"</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.199"</t>
+          <t>0.166"</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3409,7 +3321,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>7/32"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -3434,17 +3346,17 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>90909A535</t>
+          <t>90909A212</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>17.08</t>
+          <t>14.05</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>3/8"-16</t>
+          <t>5/16"-18</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3456,7 +3368,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3501,17 +3413,17 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>90909A536</t>
+          <t>90909A534</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>14.87</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -3528,7 +3440,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3573,17 +3485,17 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>90909A213</t>
+          <t>90909A535</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>17.08</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -3600,7 +3512,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3610,12 +3522,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1.156"</t>
+          <t>0.813"</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.265"</t>
+          <t>0.199"</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3625,7 +3537,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>7/32"</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3650,17 +3562,17 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>90909A214</t>
+          <t>90909A536</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>1/2"-13</t>
+          <t>3/8"-16</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3672,7 +3584,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3682,12 +3594,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.156"</t>
+          <t>0.813"</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.265"</t>
+          <t>0.199"</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3697,7 +3609,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>7/32"</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3722,17 +3634,17 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>90909A215</t>
+          <t>90909A213</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>10.97</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>1/2"-13</t>
+          <t>3/8"-16</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3744,7 +3656,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3794,12 +3706,12 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>90909A216</t>
+          <t>90909A214</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>15.61</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -3816,7 +3728,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2 1/2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3866,12 +3778,12 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>90909A217</t>
+          <t>90909A215</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>16.84</t>
+          <t>10.97</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -3888,70 +3800,214 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>2"</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1.156"</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.265"</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5/16"</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Passivated</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>90909A216</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>1/2"-13</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2 1/2"</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1.156"</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.265"</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5/16"</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Passivated</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>90909A217</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>16.84</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>1/2"-13</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
           <t>3"</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
         <is>
           <t>1.156"</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>0.265"</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Hex</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
         <is>
           <t>5/16"</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>Passivated</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>90909A218</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="L51" t="inlineStr">
         <is>
           <t>20.76</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
+      <c r="M51" t="inlineStr">
         <is>
           <t>1/2"-13</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr">
+      <c r="N51" t="inlineStr">
         <is>
           <t>316 Stainless Steel</t>
         </is>
